--- a/biology/Zoologie/Alienoptera/Alienoptera.xlsx
+++ b/biology/Zoologie/Alienoptera/Alienoptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alienopteridae
-Les Alienoptera sont un ordre fossile d'insectes dictyoptères[1]. Il s'agit d'un groupe proche des Mantodea (mantes). La majorité des membres de ce groupe ont été découverts dans l'ambre de Birmanie. Ils datent du Crétacé inférieur à l'Éocène.
-Vršanský et son équipe (2018) ne considèrent pas les Alienoptera comme un ordre d'insectes séparé ; ces auteurs assignent plutôt ses représentants à la famille des Alienopteridae, de la super-famille des Umenocoleoidea et de l'ordre des Blattaria[2].
+Les Alienoptera sont un ordre fossile d'insectes dictyoptères. Il s'agit d'un groupe proche des Mantodea (mantes). La majorité des membres de ce groupe ont été découverts dans l'ambre de Birmanie. Ils datent du Crétacé inférieur à l'Éocène.
+Vršanský et son équipe (2018) ne considèrent pas les Alienoptera comme un ordre d'insectes séparé ; ces auteurs assignent plutôt ses représentants à la famille des Alienopteridae, de la super-famille des Umenocoleoidea et de l'ordre des Blattaria.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>†Aethiocarenus?
 †Alienopterella
@@ -554,6 +568,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
